--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfl\eclipse-workspace\UserTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868A379F-6973-404A-BEB4-DF283F961CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D51363-D8EB-404E-A45C-7A77CB009984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E50AA08D-3178-4054-BDC4-843DDC1FBEBC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E50AA08D-3178-4054-BDC4-843DDC1FBEBC}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -529,9 +529,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -547,7 +547,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5631180" y="1303020"/>
-          <a:ext cx="982980" cy="487680"/>
+          <a:ext cx="1036320" cy="586740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -587,7 +587,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>/delectinfo</a:t>
+            <a:t>/delec</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>e</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>info</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -722,7 +730,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>224790</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -741,7 +749,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4343400" y="1238250"/>
-          <a:ext cx="1287780" cy="308610"/>
+          <a:ext cx="1287780" cy="358140"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1178,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D68A60-BBC0-448B-9FCE-DF967C1B0416}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1195,7 +1203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606BAC90-7F04-49FC-BA3E-8B91B0A6E2BC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
